--- a/data/trans_orig/P36BPD03_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD03_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>19729</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12252</v>
+        <v>13202</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29275</v>
+        <v>29747</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03583121042652328</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02225106480706533</v>
+        <v>0.0239764994868101</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05316794695802671</v>
+        <v>0.05402504092924766</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -762,19 +762,19 @@
         <v>9777</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4706</v>
+        <v>4676</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20462</v>
+        <v>20036</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02001782082529753</v>
+        <v>0.02001782082529752</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009635091892753427</v>
+        <v>0.009574464414934546</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04189423862148912</v>
+        <v>0.04102262002137815</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -783,19 +783,19 @@
         <v>29506</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18971</v>
+        <v>19800</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42069</v>
+        <v>41639</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02839789480884231</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01825843016866375</v>
+        <v>0.01905662670971114</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04048922683777594</v>
+        <v>0.04007491700654137</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>141225</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120106</v>
+        <v>120770</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>163961</v>
+        <v>164457</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.25648439151628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2181290091290958</v>
+        <v>0.2193360509731766</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2977759711415165</v>
+        <v>0.2986774974964751</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>97</v>
@@ -833,19 +833,19 @@
         <v>73745</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60062</v>
+        <v>60654</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>89489</v>
+        <v>89642</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1509887828494605</v>
+        <v>0.1509887828494604</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1229740973127867</v>
+        <v>0.1241861138834785</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1832245412825519</v>
+        <v>0.183538858661842</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>234</v>
@@ -854,19 +854,19 @@
         <v>214970</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>189515</v>
+        <v>188308</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>248425</v>
+        <v>242451</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2068946340212111</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.182396119161336</v>
+        <v>0.1812341800555852</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2390933760223383</v>
+        <v>0.2333439841911588</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>259947</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>235278</v>
+        <v>234416</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>284434</v>
+        <v>285400</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4720999732629553</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.427297201280017</v>
+        <v>0.4257325804228126</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5165717571943177</v>
+        <v>0.5183258410357812</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>371</v>
@@ -904,19 +904,19 @@
         <v>255933</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>237159</v>
+        <v>234810</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>275439</v>
+        <v>277047</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5240113183054202</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4855717320102636</v>
+        <v>0.4807621684611769</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5639500431264843</v>
+        <v>0.5672414493133636</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>646</v>
@@ -925,19 +925,19 @@
         <v>515880</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>483206</v>
+        <v>485965</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>549569</v>
+        <v>547272</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.4965016620576885</v>
+        <v>0.4965016620576884</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4650551713887587</v>
+        <v>0.4677103235952481</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5289252189709828</v>
+        <v>0.5267146598985554</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>129717</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109005</v>
+        <v>108195</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151885</v>
+        <v>152134</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2355844247942414</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1979677362339771</v>
+        <v>0.1964980348778819</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2758452418191599</v>
+        <v>0.2762972776021266</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>208</v>
@@ -975,19 +975,19 @@
         <v>148957</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>129292</v>
+        <v>133129</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>168010</v>
+        <v>167502</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3049820780198218</v>
+        <v>0.3049820780198217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2647201712681984</v>
+        <v>0.2725752191915084</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3439930772096737</v>
+        <v>0.3429532833089273</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>329</v>
@@ -996,19 +996,19 @@
         <v>278674</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>251583</v>
+        <v>252336</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>307863</v>
+        <v>308464</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2682058091122582</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2421324405660155</v>
+        <v>0.242857519893259</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.296298319112899</v>
+        <v>0.296877278042249</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>21009</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12752</v>
+        <v>12068</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33380</v>
+        <v>33206</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0435424329391975</v>
+        <v>0.04354243293919751</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02643017481565553</v>
+        <v>0.02501274909404996</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06918207229481532</v>
+        <v>0.06882214311382769</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -1121,19 +1121,19 @@
         <v>11493</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5965</v>
+        <v>6311</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20137</v>
+        <v>20773</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02722435640900936</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01412833094017231</v>
+        <v>0.01494808009579609</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04769860201224048</v>
+        <v>0.04920567959414952</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>33</v>
@@ -1142,19 +1142,19 @@
         <v>32502</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>22001</v>
+        <v>22531</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>46311</v>
+        <v>46661</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.03592744891071117</v>
+        <v>0.03592744891071116</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02431953643466982</v>
+        <v>0.02490565135299969</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0511914927551292</v>
+        <v>0.05157878327311503</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>101499</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>84981</v>
+        <v>83312</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>122667</v>
+        <v>124343</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.210363764142827</v>
+        <v>0.2103637641428271</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1761306177983951</v>
+        <v>0.1726700111325856</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2542359240536133</v>
+        <v>0.2577106609131112</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>107</v>
@@ -1192,19 +1192,19 @@
         <v>76779</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63672</v>
+        <v>62836</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91947</v>
+        <v>91395</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1818682323485028</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1508226181767514</v>
+        <v>0.1488423768387895</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2177974246872523</v>
+        <v>0.2164884625026146</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>206</v>
@@ -1213,19 +1213,19 @@
         <v>178278</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>155578</v>
+        <v>155640</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>203661</v>
+        <v>204692</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1970660559787815</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1719737162509738</v>
+        <v>0.1720428713429982</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2251247420081294</v>
+        <v>0.2262642041955955</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>241485</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>217420</v>
+        <v>219296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>264459</v>
+        <v>266407</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5004972585337083</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4506188174271313</v>
+        <v>0.454507146653947</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.54811271881468</v>
+        <v>0.5521490770998249</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>296</v>
@@ -1263,19 +1263,19 @@
         <v>208829</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>191080</v>
+        <v>191487</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>226680</v>
+        <v>226102</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4946590922451394</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4526161655907279</v>
+        <v>0.4535789502550498</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5369436197557876</v>
+        <v>0.5355728142792403</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>551</v>
@@ -1284,19 +1284,19 @@
         <v>450315</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>415969</v>
+        <v>421686</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>475859</v>
+        <v>482397</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4977728232756157</v>
+        <v>0.4977728232756156</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4598070751601253</v>
+        <v>0.4661270020689033</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5260088804779982</v>
+        <v>0.5332365742918648</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>118498</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>97477</v>
+        <v>98319</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>139546</v>
+        <v>138830</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2455965443842672</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2020286460716829</v>
+        <v>0.2037732548783932</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2892195845312429</v>
+        <v>0.2877361975323044</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>172</v>
@@ -1334,19 +1334,19 @@
         <v>125067</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>110660</v>
+        <v>108811</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>141726</v>
+        <v>142870</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2962483189973484</v>
+        <v>0.2962483189973483</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2621231466179615</v>
+        <v>0.2577440445406</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3357094329198382</v>
+        <v>0.3384189616296708</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>279</v>
@@ -1355,19 +1355,19 @@
         <v>243565</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>219055</v>
+        <v>216398</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>271796</v>
+        <v>271001</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2692336718348918</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2421407215710712</v>
+        <v>0.2392034589773275</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3004406074952047</v>
+        <v>0.2995610002106138</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>22652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13935</v>
+        <v>14576</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34419</v>
+        <v>35308</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04803149681909998</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02954729014945836</v>
+        <v>0.03090714678817781</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07298186128235296</v>
+        <v>0.07486719611046425</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1480,19 +1480,19 @@
         <v>8819</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4678</v>
+        <v>4734</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15140</v>
+        <v>14729</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04703722332324829</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02495186579643204</v>
+        <v>0.02524927931146774</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08074979245441768</v>
+        <v>0.07855711582541831</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -1501,19 +1501,19 @@
         <v>31472</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21613</v>
+        <v>21896</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44072</v>
+        <v>44766</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04774865501148751</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03279185916620564</v>
+        <v>0.0332213127751495</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06686564712929796</v>
+        <v>0.06791872466855187</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>107964</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>89077</v>
+        <v>88581</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>127650</v>
+        <v>127488</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2289249314829477</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1888786728861034</v>
+        <v>0.1878257653413395</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2706670351950771</v>
+        <v>0.2703237485444708</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>39</v>
@@ -1551,19 +1551,19 @@
         <v>25031</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18208</v>
+        <v>18096</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>33458</v>
+        <v>34224</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1335005534021512</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09711293498537336</v>
+        <v>0.0965154504994209</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1784431151239841</v>
+        <v>0.1825298402594411</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>149</v>
@@ -1572,19 +1572,19 @@
         <v>132995</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>111933</v>
+        <v>114099</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>153407</v>
+        <v>154148</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.201779479352044</v>
+        <v>0.2017794793520439</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.169824581089638</v>
+        <v>0.1731102466391199</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2327490508337181</v>
+        <v>0.2338738474842421</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>231014</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>210156</v>
+        <v>208016</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>254812</v>
+        <v>253398</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4898400012686922</v>
+        <v>0.4898400012686921</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4456128252454216</v>
+        <v>0.4410741341894407</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5403004358374073</v>
+        <v>0.537302522873874</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>158</v>
@@ -1622,19 +1622,19 @@
         <v>97526</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>85617</v>
+        <v>86321</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108117</v>
+        <v>108699</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5201452175669251</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4566314997335053</v>
+        <v>0.4603858318587774</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5766352731532686</v>
+        <v>0.5797359684099662</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>409</v>
@@ -1643,19 +1643,19 @@
         <v>328540</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>304058</v>
+        <v>304859</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>353707</v>
+        <v>353995</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4984609513328762</v>
+        <v>0.4984609513328763</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4613163747081446</v>
+        <v>0.4625316813033665</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5366447650322554</v>
+        <v>0.5370818498223563</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>109982</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>93074</v>
+        <v>91644</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132514</v>
+        <v>129299</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2332035704292602</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1973536985734114</v>
+        <v>0.1943215731806595</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2809809488276498</v>
+        <v>0.274163421176793</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>80</v>
@@ -1693,19 +1693,19 @@
         <v>56121</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45889</v>
+        <v>46581</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68734</v>
+        <v>68694</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2993170057076753</v>
+        <v>0.2993170057076754</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2447465793683869</v>
+        <v>0.2484343056319861</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3665890122825946</v>
+        <v>0.3663717246226624</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>187</v>
@@ -1714,19 +1714,19 @@
         <v>166103</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>144089</v>
+        <v>144611</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>188496</v>
+        <v>188698</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2520109143035923</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.218612361202709</v>
+        <v>0.2194044351404988</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2859857576836253</v>
+        <v>0.2862926086948452</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>67114</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50323</v>
+        <v>51445</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>85602</v>
+        <v>84548</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05944808320099092</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04457510880207493</v>
+        <v>0.04556893120179889</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07582410775086589</v>
+        <v>0.07489075625703243</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -1839,19 +1839,19 @@
         <v>41120</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30983</v>
+        <v>30272</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54477</v>
+        <v>54105</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04777785111217906</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03599988896027581</v>
+        <v>0.0351736887092132</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06329868559633624</v>
+        <v>0.0628654420080957</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>112</v>
@@ -1860,19 +1860,19 @@
         <v>108234</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>90551</v>
+        <v>86064</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>132399</v>
+        <v>129369</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05439987906471334</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04551244792867696</v>
+        <v>0.043257165957429</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06654595975568321</v>
+        <v>0.0650227141712879</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>254911</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224070</v>
+        <v>225922</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>287785</v>
+        <v>282053</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2257940273625867</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1984757570579141</v>
+        <v>0.2001168492601351</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.254912965974015</v>
+        <v>0.2498360725168405</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>247</v>
@@ -1910,19 +1910,19 @@
         <v>180656</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>160975</v>
+        <v>160479</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>200648</v>
+        <v>203546</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2099090472867969</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1870414479284035</v>
+        <v>0.1864647335628218</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2331375663161845</v>
+        <v>0.2365054206608706</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>499</v>
@@ -1931,19 +1931,19 @@
         <v>435567</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>398946</v>
+        <v>400012</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>472439</v>
+        <v>476294</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2189226454129366</v>
+        <v>0.2189226454129367</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2005163883666878</v>
+        <v>0.2010520813620907</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2374550380966425</v>
+        <v>0.2393930062677371</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>553321</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>517761</v>
+        <v>517716</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>589730</v>
+        <v>592967</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4901190478538933</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4586212328188864</v>
+        <v>0.4585809294125504</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5223693818281965</v>
+        <v>0.5252366389373668</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>620</v>
@@ -1981,19 +1981,19 @@
         <v>423440</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>398434</v>
+        <v>398639</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>448476</v>
+        <v>450733</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4920053722538074</v>
+        <v>0.4920053722538075</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4629511819213981</v>
+        <v>0.463189239060615</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5210957603851976</v>
+        <v>0.5237183237681673</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1189</v>
@@ -2002,19 +2002,19 @@
         <v>976760</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>930352</v>
+        <v>931917</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1020206</v>
+        <v>1019613</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.490935017113591</v>
+        <v>0.4909350171135911</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4676095001350685</v>
+        <v>0.4683957924205777</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5127714386936898</v>
+        <v>0.5124734952701177</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>253606</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>223754</v>
+        <v>220748</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>287078</v>
+        <v>284773</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.224638841582529</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1981962692465457</v>
+        <v>0.1955335594618801</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2542868788111622</v>
+        <v>0.2522450710794749</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>311</v>
@@ -2052,19 +2052,19 @@
         <v>215425</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>192509</v>
+        <v>194094</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>238865</v>
+        <v>237849</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2503077293472166</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2236812775412766</v>
+        <v>0.2255232330194762</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2775434941136492</v>
+        <v>0.2763634276394545</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>544</v>
@@ -2073,19 +2073,19 @@
         <v>469031</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>431299</v>
+        <v>431672</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>508551</v>
+        <v>509089</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.235742458408759</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.216777633282623</v>
+        <v>0.2169650513649283</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.255605742016063</v>
+        <v>0.2558759730738494</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>39175</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27682</v>
+        <v>26835</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>55788</v>
+        <v>54453</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.0691055204447724</v>
+        <v>0.06910552044477239</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04883181581511099</v>
+        <v>0.04733751699351639</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09841123222123065</v>
+        <v>0.09605708364295064</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>59</v>
@@ -2198,19 +2198,19 @@
         <v>40461</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31506</v>
+        <v>32355</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>52586</v>
+        <v>53020</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04878129364849263</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03798499862285484</v>
+        <v>0.03900849371593425</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06340008951282747</v>
+        <v>0.06392338123491687</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>95</v>
@@ -2219,19 +2219,19 @@
         <v>79635</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>63486</v>
+        <v>63582</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>100190</v>
+        <v>97076</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05703262600448212</v>
+        <v>0.05703262600448211</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04546704060656482</v>
+        <v>0.04553568751694733</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07175342701385586</v>
+        <v>0.06952326175397171</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>142133</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>118943</v>
+        <v>120308</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>167274</v>
+        <v>166435</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2507269972608578</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.209819832815934</v>
+        <v>0.2122274796046919</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2950775988583602</v>
+        <v>0.2935972241694556</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>289</v>
@@ -2269,19 +2269,19 @@
         <v>183260</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>161095</v>
+        <v>163125</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>204153</v>
+        <v>204340</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2209463470819459</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1942236771580672</v>
+        <v>0.1966717664604253</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2461362556617258</v>
+        <v>0.2463621804606008</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>428</v>
@@ -2290,19 +2290,19 @@
         <v>325392</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>295872</v>
+        <v>297014</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>357931</v>
+        <v>355463</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.233036846015398</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2118950116269941</v>
+        <v>0.2127133257709549</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2563404146894394</v>
+        <v>0.2545727366528316</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>275788</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>248251</v>
+        <v>250757</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>301882</v>
+        <v>302059</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4864996775502852</v>
+        <v>0.4864996775502849</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.437924230989762</v>
+        <v>0.4423437123350401</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5325310942893039</v>
+        <v>0.5328431798628442</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>696</v>
@@ -2340,19 +2340,19 @@
         <v>437699</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>413378</v>
+        <v>410366</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>462248</v>
+        <v>461727</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5277106071759751</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4983881267383524</v>
+        <v>0.4947566025466309</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5573085297669959</v>
+        <v>0.5566799307781737</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>976</v>
@@ -2361,19 +2361,19 @@
         <v>713487</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>674270</v>
+        <v>677663</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>749441</v>
+        <v>749969</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5109795856001331</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4828934876608065</v>
+        <v>0.4853235651687755</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5367289652930454</v>
+        <v>0.5371073436503636</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>109787</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>89401</v>
+        <v>87027</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>133794</v>
+        <v>133233</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1936678047440847</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1577060242286557</v>
+        <v>0.1535190444139546</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2360170514993268</v>
+        <v>0.2350273569600283</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>243</v>
@@ -2411,19 +2411,19 @@
         <v>168011</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>149453</v>
+        <v>148319</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>189307</v>
+        <v>188029</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2025617520935865</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1801880108193521</v>
+        <v>0.1788208787976032</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2282379032820827</v>
+        <v>0.22669631234381</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>334</v>
@@ -2432,19 +2432,19 @@
         <v>277798</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>252432</v>
+        <v>249209</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>314011</v>
+        <v>309736</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1989509423799867</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1807847717600823</v>
+        <v>0.1784765497561526</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2248860872031647</v>
+        <v>0.2218243457396081</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>24725</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13259</v>
+        <v>12654</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>44994</v>
+        <v>43889</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1042252650132735</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05589192308784074</v>
+        <v>0.05334054582773324</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1896675202794769</v>
+        <v>0.1850070229933492</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>48</v>
@@ -2557,19 +2557,19 @@
         <v>41178</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>30525</v>
+        <v>30067</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>57679</v>
+        <v>57059</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04883940254789795</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03620427421361146</v>
+        <v>0.03566124483954159</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06841082776994591</v>
+        <v>0.06767634182032931</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>59</v>
@@ -2578,19 +2578,19 @@
         <v>65903</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>47639</v>
+        <v>49559</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>85763</v>
+        <v>90818</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0610012520022052</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04409603965614973</v>
+        <v>0.04587294149362038</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0793847800569867</v>
+        <v>0.08406321221812453</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>42037</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>27166</v>
+        <v>26665</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>63475</v>
+        <v>61613</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1772029219094284</v>
+        <v>0.1772029219094283</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1145149791905784</v>
+        <v>0.1124015074815051</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2675706902841887</v>
+        <v>0.2597221350566326</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>214</v>
@@ -2628,19 +2628,19 @@
         <v>162531</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>141131</v>
+        <v>141943</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>186127</v>
+        <v>186028</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1927720907552203</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1673910833508573</v>
+        <v>0.1683537992426786</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2207586593061652</v>
+        <v>0.220641901431839</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>236</v>
@@ -2649,19 +2649,19 @@
         <v>204568</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>177321</v>
+        <v>176715</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>232448</v>
+        <v>232629</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1893533503185324</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1641332284265295</v>
+        <v>0.1635714058824592</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2151596502812898</v>
+        <v>0.2153275073912509</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>125056</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>101540</v>
+        <v>100857</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>151368</v>
+        <v>147828</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.5271564146701446</v>
+        <v>0.5271564146701445</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4280258028022176</v>
+        <v>0.4251464488914955</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6380701475885441</v>
+        <v>0.6231457294040604</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>722</v>
@@ -2699,19 +2699,19 @@
         <v>513790</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>486539</v>
+        <v>485253</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>542890</v>
+        <v>539771</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6093892778458069</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5770675783492429</v>
+        <v>0.5755418117028614</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6439038329689775</v>
+        <v>0.6402038717112446</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>784</v>
@@ -2720,19 +2720,19 @@
         <v>638846</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>602005</v>
+        <v>601734</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>676526</v>
+        <v>676091</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.5913322564757004</v>
+        <v>0.5913322564757005</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5572307476260225</v>
+        <v>0.5569801325138445</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6262095781737258</v>
+        <v>0.6258064149622787</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>45409</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>26552</v>
+        <v>27066</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>69491</v>
+        <v>70563</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1914153984071537</v>
+        <v>0.1914153984071536</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1119279634438639</v>
+        <v>0.1140931548316543</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2929277538221812</v>
+        <v>0.2974472821276943</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>173</v>
@@ -2770,19 +2770,19 @@
         <v>125625</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>107310</v>
+        <v>105787</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>150132</v>
+        <v>146704</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1489992288510749</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.127276487935365</v>
+        <v>0.1254700463713132</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1780668813855185</v>
+        <v>0.1740002717756688</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>190</v>
@@ -2791,19 +2791,19 @@
         <v>171034</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>145794</v>
+        <v>144545</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>206697</v>
+        <v>204882</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1583131412035618</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1349504627517352</v>
+        <v>0.1337940696380087</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1913243790831647</v>
+        <v>0.1896436617836703</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>194404</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>165114</v>
+        <v>166907</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>227812</v>
+        <v>230467</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05654929695745189</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04802922994908747</v>
+        <v>0.04855090773006302</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06626713262719928</v>
+        <v>0.06703951115434618</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>194</v>
@@ -2916,19 +2916,19 @@
         <v>152847</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>131256</v>
+        <v>132362</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>176956</v>
+        <v>178327</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04209199263310014</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03614606008165396</v>
+        <v>0.03645059855213251</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04873110985621798</v>
+        <v>0.04910876251882362</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>362</v>
@@ -2937,19 +2937,19 @@
         <v>347252</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>308158</v>
+        <v>313089</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>387963</v>
+        <v>388303</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04912279062022415</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04359254035644469</v>
+        <v>0.04429009482703509</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0548819341232193</v>
+        <v>0.05493006245437804</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>789768</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>734649</v>
+        <v>733071</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>845135</v>
+        <v>844877</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2297317885610614</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2136985705712325</v>
+        <v>0.213239455718498</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2458371556917754</v>
+        <v>0.2457622984067115</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>993</v>
@@ -2987,19 +2987,19 @@
         <v>702001</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>663541</v>
+        <v>662732</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>750839</v>
+        <v>751551</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1933210460179287</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1827297385994564</v>
+        <v>0.1825069437781149</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2067704583127963</v>
+        <v>0.206966684493546</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1752</v>
@@ -3008,19 +3008,19 @@
         <v>1491769</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1422066</v>
+        <v>1429683</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1559289</v>
+        <v>1566842</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.2110281212539912</v>
+        <v>0.2110281212539911</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2011679448832401</v>
+        <v>0.2022453523267841</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2205796190901675</v>
+        <v>0.221648141753905</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>1686612</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1614920</v>
+        <v>1616441</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1753441</v>
+        <v>1746979</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4906102650753035</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4697562740258748</v>
+        <v>0.4701986137295057</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5100500689782858</v>
+        <v>0.508170170300692</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2863</v>
@@ -3058,19 +3058,19 @@
         <v>1937216</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1884088</v>
+        <v>1880275</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1985777</v>
+        <v>1991855</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.5334819419823126</v>
+        <v>0.5334819419823128</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5188511438097659</v>
+        <v>0.5178012625209817</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5468549520012653</v>
+        <v>0.5485288586265166</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4555</v>
@@ -3079,19 +3079,19 @@
         <v>3623828</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3538358</v>
+        <v>3535570</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3704267</v>
+        <v>3698704</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5126328201169924</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5005421352491767</v>
+        <v>0.5001477548476104</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5240118645123946</v>
+        <v>0.5232250129627211</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>766999</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>711172</v>
+        <v>715219</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>828654</v>
+        <v>823174</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2231086494061832</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2068693408633806</v>
+        <v>0.2080465622762865</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2410432469061942</v>
+        <v>0.2394492064092956</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1187</v>
@@ -3129,19 +3129,19 @@
         <v>839204</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>794583</v>
+        <v>795714</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>880885</v>
+        <v>885828</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2311050193666585</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.218816908167664</v>
+        <v>0.2191284980844653</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2425832464241647</v>
+        <v>0.2439446175126538</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1863</v>
@@ -3150,19 +3150,19 @@
         <v>1606203</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1530309</v>
+        <v>1536617</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1679271</v>
+        <v>1681704</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2272162680087922</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2164800727717286</v>
+        <v>0.2173725140271681</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2375525199892007</v>
+        <v>0.2378967835238796</v>
       </c>
     </row>
     <row r="38">
